--- a/biology/Botanique/Phellinus_robustus/Phellinus_robustus.xlsx
+++ b/biology/Botanique/Phellinus_robustus/Phellinus_robustus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Polypore du chêne
-Phellinus robustus, le Polypore du chêne[1], est une espèce de champignons agaricomycètes de la famille des Hymenochaetaceae. Ce champignon est fréquent sur les chênes au niveau des blessures. C'est un lignivore assez lent.
+Phellinus robustus, le Polypore du chêne, est une espèce de champignons agaricomycètes de la famille des Hymenochaetaceae. Ce champignon est fréquent sur les chênes au niveau des blessures. C'est un lignivore assez lent.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Liste des formes et variétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon MycoBank                                            (24 janvier 2023)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon MycoBank                                            (24 janvier 2023) :
 Phellinus robustus f. hartigii (Allesch. &amp; Schnabl) Bourdot &amp; Galzin, 1925
 Phellinus robustus f. hippophaës Donk, 1937
 Phellinus robustus f. resupinatus Bourdot &amp; Galzin, 1925
@@ -550,12 +564,14 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Phellinus robustus (P.Karst.) Bourdot &amp; Galzin, 1925[2].
-L'espèce a été initialement classée dans le genre Fomes sous le basionyme Fomes robustus P.Karst., 1889[2].
-Ce taxon porte en français les noms vernaculaires ou normalisés suivants : Polypore du chêne[1], pourriture jaune du tronc du chêne[1].
-Phellinus robustus a pour synonymes[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Phellinus robustus (P.Karst.) Bourdot &amp; Galzin, 1925.
+L'espèce a été initialement classée dans le genre Fomes sous le basionyme Fomes robustus P.Karst., 1889.
+Ce taxon porte en français les noms vernaculaires ou normalisés suivants : Polypore du chêne, pourriture jaune du tronc du chêne.
+Phellinus robustus a pour synonymes :
 Fomes igniarius var. robustus Fr. &amp; Cooke
 Fomes rhaponticus Lloyd, 1915
 Fomes robustus P.Karst., 1889
